--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易运行状态跟踪/亨通光电-JH_00002.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易运行状态跟踪/亨通光电-JH_00002.xlsx
@@ -248,12 +248,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -308,17 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,46 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,8 +348,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,8 +385,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,7 +417,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,7 +500,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,13 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,13 +584,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,73 +632,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,13 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,10 +713,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -732,6 +758,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -742,47 +783,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,142 +806,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,10 +955,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -970,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,22 +979,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +1013,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,9 +1071,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3889,11 +3889,11 @@
   <dimension ref="A1:AP377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3:X4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3967,36 +3967,36 @@
       <c r="S1" s="15"/>
       <c r="T1" s="15"/>
       <c r="U1" s="15"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="27" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="34" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34" t="s">
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="28" t="s">
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="37" t="s">
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AO1" s="37"/>
+      <c r="AO1" s="38"/>
       <c r="AP1" s="41" t="s">
         <v>8</v>
       </c>
@@ -4023,27 +4023,27 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="21"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="22"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:42">
       <c r="A3" s="6"/>
@@ -4099,33 +4099,33 @@
       </c>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="28" t="s">
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="32" t="s">
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="21"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="22"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:42">
       <c r="A4" s="6"/>
@@ -4146,52 +4146,52 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="29" t="s">
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="Z4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="30" t="s">
+      <c r="AA4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="31" t="s">
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="32" t="s">
+      <c r="AF4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="35" t="s">
+      <c r="AG4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="21"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="22"/>
     </row>
     <row r="5" ht="71" spans="1:42">
       <c r="A5" s="6"/>
@@ -4208,68 +4208,68 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="26" t="s">
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="26" t="s">
+      <c r="W5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="X5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="31" t="s">
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="31" t="s">
+      <c r="AB5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="34" t="s">
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AI5" s="34" t="s">
+      <c r="AI5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AJ5" s="34" t="s">
+      <c r="AJ5" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AK5" s="34" t="s">
+      <c r="AK5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AL5" s="38" t="s">
+      <c r="AL5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AM5" s="38" t="s">
+      <c r="AM5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AO5" s="34" t="s">
+      <c r="AO5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AP5" s="21"/>
+      <c r="AP5" s="22"/>
     </row>
     <row r="6" spans="1:42">
       <c r="A6" s="9">
@@ -4314,15 +4314,15 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="23" t="str">
+      <c r="S6" s="24" t="str">
         <f>IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="T6" s="23" t="str">
+      <c r="T6" s="24" t="str">
         <f>IF(C6&lt;H6,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="U6" s="23" t="str">
+      <c r="U6" s="24" t="str">
         <f>IF(D6&lt;I6,"是","否")</f>
         <v>是</v>
       </c>
@@ -4338,14 +4338,14 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="36">
+      <c r="AH6" s="37">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$45,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$45,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>0.160874439461883</v>
       </c>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-      <c r="AL6" s="39">
+      <c r="AL6" s="10">
         <v>19.23</v>
       </c>
       <c r="AM6" s="5"/>
@@ -4358,16 +4358,38 @@
       <c r="A7" s="9">
         <v>44859</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="10">
+        <v>20.98</v>
+      </c>
+      <c r="C7" s="10">
+        <v>20.65</v>
+      </c>
+      <c r="D7" s="10">
+        <v>21.37</v>
+      </c>
+      <c r="E7" s="10">
+        <v>20.29</v>
+      </c>
+      <c r="F7" s="13">
+        <v>41.74</v>
+      </c>
+      <c r="G7" s="10">
+        <v>19.57</v>
+      </c>
+      <c r="H7" s="10">
+        <v>18.4</v>
+      </c>
+      <c r="I7" s="10">
+        <v>30.1</v>
+      </c>
+      <c r="J7" s="21" t="str">
+        <f>IF(B7&gt;(D7-(D7-E7)/2),"上","下")</f>
+        <v>上</v>
+      </c>
+      <c r="K7" s="20">
+        <f>(B7-20.77)/20.77</f>
+        <v>0.0101107366393838</v>
+      </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -4390,7 +4412,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="36"/>
+      <c r="AH7" s="37"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
@@ -4435,7 +4457,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="36"/>
+      <c r="AH8" s="37"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
@@ -4480,7 +4502,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="36"/>
+      <c r="AH9" s="37"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
@@ -4525,7 +4547,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="36"/>
+      <c r="AH10" s="37"/>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
@@ -4570,7 +4592,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="36"/>
+      <c r="AH11" s="37"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
@@ -4615,7 +4637,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="36"/>
+      <c r="AH12" s="37"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
@@ -4660,7 +4682,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="36"/>
+      <c r="AH13" s="37"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
@@ -4705,7 +4727,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="36"/>
+      <c r="AH14" s="37"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
@@ -4750,7 +4772,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="36"/>
+      <c r="AH15" s="37"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
@@ -4795,7 +4817,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="36"/>
+      <c r="AH16" s="37"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
@@ -4840,7 +4862,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="36"/>
+      <c r="AH17" s="37"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
